--- a/data/pca/factorExposure/factorExposure_2009-01-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-13.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01702969913660162</v>
+        <v>-0.01623404373293756</v>
       </c>
       <c r="C2">
-        <v>-0.00948259881552147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.01150200162188875</v>
+      </c>
+      <c r="D2">
+        <v>-0.01456104090066962</v>
+      </c>
+      <c r="E2">
+        <v>0.01185761442708226</v>
+      </c>
+      <c r="F2">
+        <v>-0.008160984480274186</v>
+      </c>
+      <c r="G2">
+        <v>0.0196533530762296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.07948848085278014</v>
+        <v>-0.08219488546170794</v>
       </c>
       <c r="C4">
-        <v>-0.08484431221307173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08795354519151913</v>
+      </c>
+      <c r="D4">
+        <v>0.06529254965000421</v>
+      </c>
+      <c r="E4">
+        <v>0.01560774221157448</v>
+      </c>
+      <c r="F4">
+        <v>-0.02949312716282112</v>
+      </c>
+      <c r="G4">
+        <v>0.0333254027246731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003760755614011003</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001480252476844415</v>
+      </c>
+      <c r="D5">
+        <v>0.001485883055480798</v>
+      </c>
+      <c r="E5">
+        <v>-0.005063179119524879</v>
+      </c>
+      <c r="F5">
+        <v>0.0008665627337897041</v>
+      </c>
+      <c r="G5">
+        <v>-0.004295622627418676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1669148591646168</v>
+        <v>-0.1693465185432749</v>
       </c>
       <c r="C6">
-        <v>0.02005100130960328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.009406008837674245</v>
+      </c>
+      <c r="D6">
+        <v>0.05732292727785496</v>
+      </c>
+      <c r="E6">
+        <v>-0.02992031034246831</v>
+      </c>
+      <c r="F6">
+        <v>0.04954647033953368</v>
+      </c>
+      <c r="G6">
+        <v>-0.006584334023499498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05518872252096445</v>
+        <v>-0.0570410841054937</v>
       </c>
       <c r="C7">
-        <v>-0.05756554101400632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.06281541373762604</v>
+      </c>
+      <c r="D7">
+        <v>0.06361884799118131</v>
+      </c>
+      <c r="E7">
+        <v>0.06568803462159011</v>
+      </c>
+      <c r="F7">
+        <v>-0.0391204785136809</v>
+      </c>
+      <c r="G7">
+        <v>0.0658612699905412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05403461121944666</v>
+        <v>-0.0514159677957479</v>
       </c>
       <c r="C8">
-        <v>-0.05579951240380421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05447158558014722</v>
+      </c>
+      <c r="D8">
+        <v>-0.01593068369975501</v>
+      </c>
+      <c r="E8">
+        <v>0.02715296069254828</v>
+      </c>
+      <c r="F8">
+        <v>-0.03197579017399575</v>
+      </c>
+      <c r="G8">
+        <v>-0.001682451634382159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05815847896986131</v>
+        <v>-0.06244893426440026</v>
       </c>
       <c r="C9">
-        <v>-0.09106891115699255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09235567158316141</v>
+      </c>
+      <c r="D9">
+        <v>0.08985335779234802</v>
+      </c>
+      <c r="E9">
+        <v>0.03706204551628072</v>
+      </c>
+      <c r="F9">
+        <v>-0.04387224254534575</v>
+      </c>
+      <c r="G9">
+        <v>0.006299627109265887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1136197132794701</v>
+        <v>-0.1022274028225027</v>
       </c>
       <c r="C10">
-        <v>0.1449049988275441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.1359699235748929</v>
+      </c>
+      <c r="D10">
+        <v>-0.1019156903809218</v>
+      </c>
+      <c r="E10">
+        <v>0.03022277426076685</v>
+      </c>
+      <c r="F10">
+        <v>-0.03472199827995139</v>
+      </c>
+      <c r="G10">
+        <v>-0.02208535967072332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07847069361433469</v>
+        <v>-0.07587064904752154</v>
       </c>
       <c r="C11">
-        <v>-0.1307461568756917</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1300102616651658</v>
+      </c>
+      <c r="D11">
+        <v>0.04904970237866227</v>
+      </c>
+      <c r="E11">
+        <v>0.04252057612470637</v>
+      </c>
+      <c r="F11">
+        <v>-0.06503727964638009</v>
+      </c>
+      <c r="G11">
+        <v>-0.002780118552564412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.07928032465721611</v>
+        <v>-0.07631701733171534</v>
       </c>
       <c r="C12">
-        <v>-0.1571712570460482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.1541391293573617</v>
+      </c>
+      <c r="D12">
+        <v>0.05678821194285209</v>
+      </c>
+      <c r="E12">
+        <v>0.04834091672270333</v>
+      </c>
+      <c r="F12">
+        <v>-0.06443559949590169</v>
+      </c>
+      <c r="G12">
+        <v>0.01405808076327288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.04014048130710641</v>
+        <v>-0.04215718855285576</v>
       </c>
       <c r="C13">
-        <v>-0.06822462915095054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07291057174666501</v>
+      </c>
+      <c r="D13">
+        <v>0.03008684281427425</v>
+      </c>
+      <c r="E13">
+        <v>0.0591747648346767</v>
+      </c>
+      <c r="F13">
+        <v>-0.05408347855460022</v>
+      </c>
+      <c r="G13">
+        <v>0.02549129851848596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02072553379134829</v>
+        <v>-0.02315913510545448</v>
       </c>
       <c r="C14">
-        <v>-0.04744048638012548</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.04830064469002666</v>
+      </c>
+      <c r="D14">
+        <v>0.04524539552573394</v>
+      </c>
+      <c r="E14">
+        <v>0.04083713037335097</v>
+      </c>
+      <c r="F14">
+        <v>-0.06467281566628363</v>
+      </c>
+      <c r="G14">
+        <v>-0.01115723944057229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03169175358285013</v>
+        <v>-0.03292516609526628</v>
       </c>
       <c r="C15">
-        <v>-0.059896093468591</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.05850532009718012</v>
+      </c>
+      <c r="D15">
+        <v>0.04653724841620478</v>
+      </c>
+      <c r="E15">
+        <v>0.03304468552329726</v>
+      </c>
+      <c r="F15">
+        <v>-0.008591793939506256</v>
+      </c>
+      <c r="G15">
+        <v>0.001487819366893046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05726940299157142</v>
+        <v>-0.05617503037593518</v>
       </c>
       <c r="C16">
-        <v>-0.1528899619445169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.1514734712354966</v>
+      </c>
+      <c r="D16">
+        <v>0.05626793166922707</v>
+      </c>
+      <c r="E16">
+        <v>0.02018880145869164</v>
+      </c>
+      <c r="F16">
+        <v>-0.07360803871010883</v>
+      </c>
+      <c r="G16">
+        <v>-0.006707414249064726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.006264825085149261</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.004514031380855195</v>
+      </c>
+      <c r="D17">
+        <v>-0.0008151023151142294</v>
+      </c>
+      <c r="E17">
+        <v>-0.005645665597457545</v>
+      </c>
+      <c r="F17">
+        <v>0.007743656129325848</v>
+      </c>
+      <c r="G17">
+        <v>-0.01218835084688618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04153912606948298</v>
+        <v>-0.05254845263135113</v>
       </c>
       <c r="C18">
-        <v>-0.05206332603092753</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04719607407083824</v>
+      </c>
+      <c r="D18">
+        <v>-0.005811029237538165</v>
+      </c>
+      <c r="E18">
+        <v>-0.02422816903080301</v>
+      </c>
+      <c r="F18">
+        <v>0.05425756978685756</v>
+      </c>
+      <c r="G18">
+        <v>-0.009649652695333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05725543949024534</v>
+        <v>-0.05664717726636687</v>
       </c>
       <c r="C20">
-        <v>-0.09943245368686034</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.09785497009306597</v>
+      </c>
+      <c r="D20">
+        <v>0.08002893585208309</v>
+      </c>
+      <c r="E20">
+        <v>0.0353993067249308</v>
+      </c>
+      <c r="F20">
+        <v>-0.05918701528514364</v>
+      </c>
+      <c r="G20">
+        <v>-0.003188447084286743</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0438139823142888</v>
+        <v>-0.04468411411743074</v>
       </c>
       <c r="C21">
-        <v>-0.06378107709892668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.06070326791086725</v>
+      </c>
+      <c r="D21">
+        <v>0.01205863878273609</v>
+      </c>
+      <c r="E21">
+        <v>0.05196894807317739</v>
+      </c>
+      <c r="F21">
+        <v>-0.04810300296601498</v>
+      </c>
+      <c r="G21">
+        <v>0.02822883164943748</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04484295617624818</v>
+        <v>-0.04500329194841608</v>
       </c>
       <c r="C22">
-        <v>-0.03173159182082002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.03658519683087923</v>
+      </c>
+      <c r="D22">
+        <v>-0.06854534347453743</v>
+      </c>
+      <c r="E22">
+        <v>-0.1415022944394536</v>
+      </c>
+      <c r="F22">
+        <v>-0.05949323956097234</v>
+      </c>
+      <c r="G22">
+        <v>-0.07725575320651698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04485240057614744</v>
+        <v>-0.04501153215353124</v>
       </c>
       <c r="C23">
-        <v>-0.03172528823758219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03657967659357063</v>
+      </c>
+      <c r="D23">
+        <v>-0.06858099561081528</v>
+      </c>
+      <c r="E23">
+        <v>-0.1415194926849425</v>
+      </c>
+      <c r="F23">
+        <v>-0.0595091326954358</v>
+      </c>
+      <c r="G23">
+        <v>-0.07731583602796988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06560288062596308</v>
+        <v>-0.06404746225825542</v>
       </c>
       <c r="C24">
-        <v>-0.1394912530525395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.1366095013524541</v>
+      </c>
+      <c r="D24">
+        <v>0.05757280802532646</v>
+      </c>
+      <c r="E24">
+        <v>0.03636385836136506</v>
+      </c>
+      <c r="F24">
+        <v>-0.06243887886394459</v>
+      </c>
+      <c r="G24">
+        <v>0.007049933998012645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07100348459454703</v>
+        <v>-0.06887411074755963</v>
       </c>
       <c r="C25">
-        <v>-0.1219529762450074</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1203678892880035</v>
+      </c>
+      <c r="D25">
+        <v>0.03939257517387265</v>
+      </c>
+      <c r="E25">
+        <v>0.0735230875788091</v>
+      </c>
+      <c r="F25">
+        <v>-0.06016008498643813</v>
+      </c>
+      <c r="G25">
+        <v>0.02241107082823532</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05597280324488617</v>
+        <v>-0.05948825581226098</v>
       </c>
       <c r="C26">
-        <v>-0.07029360756096024</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.07259558530602125</v>
+      </c>
+      <c r="D26">
+        <v>0.02109011629921206</v>
+      </c>
+      <c r="E26">
+        <v>0.05108520887744716</v>
+      </c>
+      <c r="F26">
+        <v>-0.0586320705753034</v>
+      </c>
+      <c r="G26">
+        <v>0.006834743047130021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1725542529896569</v>
+        <v>-0.1757234817720711</v>
       </c>
       <c r="C28">
-        <v>0.2295049688386711</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2294376087307767</v>
+      </c>
+      <c r="D28">
+        <v>-0.01432037729733048</v>
+      </c>
+      <c r="E28">
+        <v>0.1286394168977453</v>
+      </c>
+      <c r="F28">
+        <v>-0.08565487868980069</v>
+      </c>
+      <c r="G28">
+        <v>0.007714044031536251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02491148881683083</v>
+        <v>-0.02696650442101944</v>
       </c>
       <c r="C29">
-        <v>-0.05477977962293171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05260608778675056</v>
+      </c>
+      <c r="D29">
+        <v>0.009793345280203114</v>
+      </c>
+      <c r="E29">
+        <v>0.03627835292325741</v>
+      </c>
+      <c r="F29">
+        <v>-0.06201540831645504</v>
+      </c>
+      <c r="G29">
+        <v>-0.007314544664190903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03784405163653127</v>
+        <v>-0.03918621556400224</v>
       </c>
       <c r="C30">
-        <v>-0.06728090661889764</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07503261100443809</v>
+      </c>
+      <c r="D30">
+        <v>0.1296886311654155</v>
+      </c>
+      <c r="E30">
+        <v>0.0977461319206052</v>
+      </c>
+      <c r="F30">
+        <v>-0.02078644160104312</v>
+      </c>
+      <c r="G30">
+        <v>0.0199526905462608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05270315420456031</v>
+        <v>-0.05175295942769857</v>
       </c>
       <c r="C31">
-        <v>-0.03616151504537261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.03823216500619298</v>
+      </c>
+      <c r="D31">
+        <v>0.008208070910751144</v>
+      </c>
+      <c r="E31">
+        <v>-0.02277371002609115</v>
+      </c>
+      <c r="F31">
+        <v>-0.03937592288062599</v>
+      </c>
+      <c r="G31">
+        <v>0.004346619446066726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0445520944780259</v>
+        <v>-0.04765341509756708</v>
       </c>
       <c r="C32">
-        <v>-0.05360171811606229</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.0517430041644194</v>
+      </c>
+      <c r="D32">
+        <v>0.02146853429371594</v>
+      </c>
+      <c r="E32">
+        <v>-0.008846993645571967</v>
+      </c>
+      <c r="F32">
+        <v>-0.008447247277223915</v>
+      </c>
+      <c r="G32">
+        <v>-0.00416017809426805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07751428408904813</v>
+        <v>-0.08126214440948967</v>
       </c>
       <c r="C33">
-        <v>-0.1159018450046364</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.1247577414932807</v>
+      </c>
+      <c r="D33">
+        <v>0.07118793536712537</v>
+      </c>
+      <c r="E33">
+        <v>0.032990010428476</v>
+      </c>
+      <c r="F33">
+        <v>-0.06249919099381469</v>
+      </c>
+      <c r="G33">
+        <v>-0.009797987669773533</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0544099502278169</v>
+        <v>-0.05354076758272118</v>
       </c>
       <c r="C34">
-        <v>-0.1242298597928502</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.1240957038571695</v>
+      </c>
+      <c r="D34">
+        <v>0.07787986681782338</v>
+      </c>
+      <c r="E34">
+        <v>0.06721784772697151</v>
+      </c>
+      <c r="F34">
+        <v>-0.05516639446874009</v>
+      </c>
+      <c r="G34">
+        <v>-0.02380117743218319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02644681586498071</v>
+        <v>-0.02911213279305764</v>
       </c>
       <c r="C35">
-        <v>-0.01778381667851996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.01982830893180809</v>
+      </c>
+      <c r="D35">
+        <v>0.01606970585445481</v>
+      </c>
+      <c r="E35">
+        <v>0.01158080212019252</v>
+      </c>
+      <c r="F35">
+        <v>-0.02757732650092201</v>
+      </c>
+      <c r="G35">
+        <v>-0.03077449792082433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02430300687284605</v>
+        <v>-0.02690186226655923</v>
       </c>
       <c r="C36">
-        <v>-0.05368702529489086</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05229765684398049</v>
+      </c>
+      <c r="D36">
+        <v>0.05905872119575846</v>
+      </c>
+      <c r="E36">
+        <v>0.01664516006399502</v>
+      </c>
+      <c r="F36">
+        <v>-0.01151288731539812</v>
+      </c>
+      <c r="G36">
+        <v>-0.09058413083517278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0006073662367742141</v>
+        <v>-0.003602207957840962</v>
       </c>
       <c r="C37">
-        <v>0.000386659517064567</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.007586909030349278</v>
+      </c>
+      <c r="D37">
+        <v>0.001508241035030463</v>
+      </c>
+      <c r="E37">
+        <v>0.005225522872526961</v>
+      </c>
+      <c r="F37">
+        <v>-0.0095411562832794</v>
+      </c>
+      <c r="G37">
+        <v>0.00575850836002076</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0793164129587742</v>
+        <v>-0.07486696528309231</v>
       </c>
       <c r="C39">
-        <v>-0.1527377408764858</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1460498045893099</v>
+      </c>
+      <c r="D39">
+        <v>0.0248323749348048</v>
+      </c>
+      <c r="E39">
+        <v>0.05575506503949119</v>
+      </c>
+      <c r="F39">
+        <v>-0.1227318769470241</v>
+      </c>
+      <c r="G39">
+        <v>0.03734704263756824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04653597421927475</v>
+        <v>-0.04973204696406996</v>
       </c>
       <c r="C40">
-        <v>-0.07092608567674256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.0768266300793578</v>
+      </c>
+      <c r="D40">
+        <v>0.01044937223016747</v>
+      </c>
+      <c r="E40">
+        <v>0.04786616933095177</v>
+      </c>
+      <c r="F40">
+        <v>-0.01753629315084417</v>
+      </c>
+      <c r="G40">
+        <v>-0.02507374575369433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02801673279879265</v>
+        <v>-0.02825986526897921</v>
       </c>
       <c r="C41">
-        <v>-0.02305035782262587</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02413349019516116</v>
+      </c>
+      <c r="D41">
+        <v>-0.009399569042167535</v>
+      </c>
+      <c r="E41">
+        <v>-0.003841737030897674</v>
+      </c>
+      <c r="F41">
+        <v>0.01217392965341862</v>
+      </c>
+      <c r="G41">
+        <v>-0.009232169591418005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04245805224344676</v>
+        <v>-0.04111509461710448</v>
       </c>
       <c r="C43">
-        <v>-0.0399973979985175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.03697177995949755</v>
+      </c>
+      <c r="D43">
+        <v>-0.006380166276250175</v>
+      </c>
+      <c r="E43">
+        <v>-0.01654190881050548</v>
+      </c>
+      <c r="F43">
+        <v>-0.03976812704700246</v>
+      </c>
+      <c r="G43">
+        <v>-0.02100026545280471</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05716472053225755</v>
+        <v>-0.06239901589004448</v>
       </c>
       <c r="C44">
-        <v>-0.08882101187966389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.09041981831918584</v>
+      </c>
+      <c r="D44">
+        <v>0.2763890858587243</v>
+      </c>
+      <c r="E44">
+        <v>0.1378252526895055</v>
+      </c>
+      <c r="F44">
+        <v>-0.04840581297226672</v>
+      </c>
+      <c r="G44">
+        <v>-0.1599221361704361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0005677712336260304</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.0006900320355252252</v>
+      </c>
+      <c r="D45">
+        <v>-0.0003147305450456783</v>
+      </c>
+      <c r="E45">
+        <v>-0.001766513775603615</v>
+      </c>
+      <c r="F45">
+        <v>0.00170497916251194</v>
+      </c>
+      <c r="G45">
+        <v>0.004364906023154917</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02809664246149366</v>
+        <v>-0.02917955351544246</v>
       </c>
       <c r="C46">
-        <v>-0.04129033857877605</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.03932408109083489</v>
+      </c>
+      <c r="D46">
+        <v>0.01093870752464431</v>
+      </c>
+      <c r="E46">
+        <v>0.004472537352921362</v>
+      </c>
+      <c r="F46">
+        <v>-0.08181453472114045</v>
+      </c>
+      <c r="G46">
+        <v>0.005146636302114068</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05422991839290885</v>
+        <v>-0.05321398647815923</v>
       </c>
       <c r="C47">
-        <v>-0.03806640138393867</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.03755905913626704</v>
+      </c>
+      <c r="D47">
+        <v>-0.02347606466746387</v>
+      </c>
+      <c r="E47">
+        <v>-0.05401435470912828</v>
+      </c>
+      <c r="F47">
+        <v>-0.02850462285431039</v>
+      </c>
+      <c r="G47">
+        <v>-0.00683736486910945</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04667208854525406</v>
+        <v>-0.04909536010591856</v>
       </c>
       <c r="C48">
-        <v>-0.06951176032802064</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.06928347477699773</v>
+      </c>
+      <c r="D48">
+        <v>0.02647741304333726</v>
+      </c>
+      <c r="E48">
+        <v>0.04860241814190897</v>
+      </c>
+      <c r="F48">
+        <v>-0.04084788332302674</v>
+      </c>
+      <c r="G48">
+        <v>0.03714153620422773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1915692249243518</v>
+        <v>-0.1968814514905252</v>
       </c>
       <c r="C49">
-        <v>0.01707959808260534</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01235728697958444</v>
+      </c>
+      <c r="D49">
+        <v>0.04885689107628328</v>
+      </c>
+      <c r="E49">
+        <v>-0.01478143603869512</v>
+      </c>
+      <c r="F49">
+        <v>0.04606416438402938</v>
+      </c>
+      <c r="G49">
+        <v>0.03889867896324879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05197836636336119</v>
+        <v>-0.05223589629029135</v>
       </c>
       <c r="C50">
-        <v>-0.03470657399775157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.03723293677602386</v>
+      </c>
+      <c r="D50">
+        <v>0.02171185333951343</v>
+      </c>
+      <c r="E50">
+        <v>-0.01898010810706315</v>
+      </c>
+      <c r="F50">
+        <v>-0.02651208000619286</v>
+      </c>
+      <c r="G50">
+        <v>0.01138673716357416</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1416661680846309</v>
+        <v>-0.1364607918996798</v>
       </c>
       <c r="C52">
-        <v>-0.03486373643409823</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.03375579141365682</v>
+      </c>
+      <c r="D52">
+        <v>0.04870929522742122</v>
+      </c>
+      <c r="E52">
+        <v>-0.09449687176819541</v>
+      </c>
+      <c r="F52">
+        <v>0.02107893573895923</v>
+      </c>
+      <c r="G52">
+        <v>-2.017538219187993e-05</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1681068844390981</v>
+        <v>-0.1619853812782996</v>
       </c>
       <c r="C53">
-        <v>0.009635218968130573</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.005896761894893224</v>
+      </c>
+      <c r="D53">
+        <v>0.09054326700477704</v>
+      </c>
+      <c r="E53">
+        <v>-0.147133413483599</v>
+      </c>
+      <c r="F53">
+        <v>0.03986652713873848</v>
+      </c>
+      <c r="G53">
+        <v>0.02337291335634071</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01188504378073114</v>
+        <v>-0.01393382655785785</v>
       </c>
       <c r="C54">
-        <v>-0.03730705658228874</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.03648386557200411</v>
+      </c>
+      <c r="D54">
+        <v>0.01603218407343257</v>
+      </c>
+      <c r="E54">
+        <v>0.01342563505796368</v>
+      </c>
+      <c r="F54">
+        <v>-0.04707031433948317</v>
+      </c>
+      <c r="G54">
+        <v>-0.0008409164918781646</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1213440369135826</v>
+        <v>-0.1189041410123578</v>
       </c>
       <c r="C55">
-        <v>-0.01212101184221718</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01628897007785713</v>
+      </c>
+      <c r="D55">
+        <v>0.06439061380516657</v>
+      </c>
+      <c r="E55">
+        <v>-0.1054950667511127</v>
+      </c>
+      <c r="F55">
+        <v>-0.02928948208661323</v>
+      </c>
+      <c r="G55">
+        <v>0.01301710131295367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1787410595305677</v>
+        <v>-0.1737055558360509</v>
       </c>
       <c r="C56">
-        <v>0.00533833069061251</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.004589295026381494</v>
+      </c>
+      <c r="D56">
+        <v>0.03882984574117602</v>
+      </c>
+      <c r="E56">
+        <v>-0.1601070609039921</v>
+      </c>
+      <c r="F56">
+        <v>0.06808799167641934</v>
+      </c>
+      <c r="G56">
+        <v>0.0343155942824664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04286611417690867</v>
+        <v>-0.04212412928441885</v>
       </c>
       <c r="C58">
-        <v>-0.09793255186927478</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1073785928894295</v>
+      </c>
+      <c r="D58">
+        <v>0.0002426386218238825</v>
+      </c>
+      <c r="E58">
+        <v>-0.00817212039331626</v>
+      </c>
+      <c r="F58">
+        <v>-0.0529770008461203</v>
+      </c>
+      <c r="G58">
+        <v>0.008549970890440965</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1866341465933377</v>
+        <v>-0.1924126737995064</v>
       </c>
       <c r="C59">
-        <v>0.1707705472623026</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1776146130039361</v>
+      </c>
+      <c r="D59">
+        <v>-0.08661451311830179</v>
+      </c>
+      <c r="E59">
+        <v>0.02612307354221431</v>
+      </c>
+      <c r="F59">
+        <v>-0.07524273138091629</v>
+      </c>
+      <c r="G59">
+        <v>0.03777264832256578</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2110263771678713</v>
+        <v>-0.2087230265408405</v>
       </c>
       <c r="C60">
-        <v>-0.007855113527019588</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.01188964114841733</v>
+      </c>
+      <c r="D60">
+        <v>-0.05141545072312061</v>
+      </c>
+      <c r="E60">
+        <v>-0.1449126251509422</v>
+      </c>
+      <c r="F60">
+        <v>0.1203789543812228</v>
+      </c>
+      <c r="G60">
+        <v>0.1024342895529678</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06346466041284492</v>
+        <v>-0.06087982126348614</v>
       </c>
       <c r="C61">
-        <v>-0.1264779337429808</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.1244147131542275</v>
+      </c>
+      <c r="D61">
+        <v>0.0274662384005045</v>
+      </c>
+      <c r="E61">
+        <v>0.03780921626380703</v>
+      </c>
+      <c r="F61">
+        <v>-0.07701065681918501</v>
+      </c>
+      <c r="G61">
+        <v>0.01926460293409922</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1690355073791383</v>
+        <v>-0.1654575800279609</v>
       </c>
       <c r="C62">
-        <v>0.004693527090834071</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.004354596202874837</v>
+      </c>
+      <c r="D62">
+        <v>0.03823111273031071</v>
+      </c>
+      <c r="E62">
+        <v>-0.1424776891802924</v>
+      </c>
+      <c r="F62">
+        <v>0.04855933906042607</v>
+      </c>
+      <c r="G62">
+        <v>0.01853291769868141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.0390876967833746</v>
+        <v>-0.04195011404360142</v>
       </c>
       <c r="C63">
-        <v>-0.07721362870224954</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08040564292230426</v>
+      </c>
+      <c r="D63">
+        <v>0.02107514787304215</v>
+      </c>
+      <c r="E63">
+        <v>0.02041696534176163</v>
+      </c>
+      <c r="F63">
+        <v>-0.03678212815837223</v>
+      </c>
+      <c r="G63">
+        <v>-0.03017452877435047</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1122208668299488</v>
+        <v>-0.1095774476736926</v>
       </c>
       <c r="C64">
-        <v>-0.05392051988623902</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.05754326233199999</v>
+      </c>
+      <c r="D64">
+        <v>0.02853980394004888</v>
+      </c>
+      <c r="E64">
+        <v>-0.02771443051294163</v>
+      </c>
+      <c r="F64">
+        <v>0.02985537492842577</v>
+      </c>
+      <c r="G64">
+        <v>0.009604447118485909</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1586238844919817</v>
+        <v>-0.1620224004059435</v>
       </c>
       <c r="C65">
-        <v>0.05976483974292744</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04797820794013377</v>
+      </c>
+      <c r="D65">
+        <v>0.06319537489387173</v>
+      </c>
+      <c r="E65">
+        <v>-0.02320971285068051</v>
+      </c>
+      <c r="F65">
+        <v>-0.00614443906731244</v>
+      </c>
+      <c r="G65">
+        <v>0.002285029645070927</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.09607757957996788</v>
+        <v>-0.09148714044667365</v>
       </c>
       <c r="C66">
-        <v>-0.1317739830465927</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1306886206577049</v>
+      </c>
+      <c r="D66">
+        <v>0.02611551001257881</v>
+      </c>
+      <c r="E66">
+        <v>0.06112211632388048</v>
+      </c>
+      <c r="F66">
+        <v>-0.07810856631909346</v>
+      </c>
+      <c r="G66">
+        <v>-0.0008280357272974883</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05619377230496724</v>
+        <v>-0.04898250194648679</v>
       </c>
       <c r="C67">
-        <v>-0.09398084175627504</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.0848530387385641</v>
+      </c>
+      <c r="D67">
+        <v>-0.0566124454037743</v>
+      </c>
+      <c r="E67">
+        <v>-0.08958732335198999</v>
+      </c>
+      <c r="F67">
+        <v>-0.01668685942794371</v>
+      </c>
+      <c r="G67">
+        <v>-0.03905711747209165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1423454175818122</v>
+        <v>-0.1445310958513197</v>
       </c>
       <c r="C68">
-        <v>0.2497621026431005</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2501877371870417</v>
+      </c>
+      <c r="D68">
+        <v>-0.02448094519404405</v>
+      </c>
+      <c r="E68">
+        <v>0.1493244035123727</v>
+      </c>
+      <c r="F68">
+        <v>-0.05634903910217774</v>
+      </c>
+      <c r="G68">
+        <v>0.05060525317253985</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03978909749809664</v>
+        <v>-0.03866850428522099</v>
       </c>
       <c r="C69">
-        <v>-0.01892562818775667</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.02057561541796777</v>
+      </c>
+      <c r="D69">
+        <v>-0.001840193905431765</v>
+      </c>
+      <c r="E69">
+        <v>-0.0731291464275271</v>
+      </c>
+      <c r="F69">
+        <v>0.009727640406469489</v>
+      </c>
+      <c r="G69">
+        <v>-0.04866783398678374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07612025291465316</v>
+        <v>-0.07421627036884022</v>
       </c>
       <c r="C70">
-        <v>-0.09688135799771908</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09392398852941178</v>
+      </c>
+      <c r="D70">
+        <v>-0.4918362998795579</v>
+      </c>
+      <c r="E70">
+        <v>-0.3311140627097773</v>
+      </c>
+      <c r="F70">
+        <v>0.09451025911110682</v>
+      </c>
+      <c r="G70">
+        <v>0.5000036247454945</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1668256814895306</v>
+        <v>-0.1693578828181743</v>
       </c>
       <c r="C71">
-        <v>0.2570555290512982</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.25496682405051</v>
+      </c>
+      <c r="D71">
+        <v>-0.02724287923237684</v>
+      </c>
+      <c r="E71">
+        <v>0.1591277992854658</v>
+      </c>
+      <c r="F71">
+        <v>-0.05574642760937296</v>
+      </c>
+      <c r="G71">
+        <v>0.05488740334595905</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1447095263898951</v>
+        <v>-0.1494442442048262</v>
       </c>
       <c r="C72">
-        <v>-0.009380731276379289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.009050972310983998</v>
+      </c>
+      <c r="D72">
+        <v>0.05899332779179147</v>
+      </c>
+      <c r="E72">
+        <v>-0.07566064885348875</v>
+      </c>
+      <c r="F72">
+        <v>-0.01477981056201382</v>
+      </c>
+      <c r="G72">
+        <v>-0.05175871053664071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1919278943868401</v>
+        <v>-0.1996366981695719</v>
       </c>
       <c r="C73">
-        <v>-0.02662266513376015</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.03309650590418212</v>
+      </c>
+      <c r="D73">
+        <v>0.06371338273238938</v>
+      </c>
+      <c r="E73">
+        <v>-0.1264208124033787</v>
+      </c>
+      <c r="F73">
+        <v>0.04585241843870497</v>
+      </c>
+      <c r="G73">
+        <v>-0.02745246064551534</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08718283822000474</v>
+        <v>-0.08591318609636137</v>
       </c>
       <c r="C74">
-        <v>-0.003493598111595465</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01026630524883127</v>
+      </c>
+      <c r="D74">
+        <v>0.07315575824568178</v>
+      </c>
+      <c r="E74">
+        <v>-0.07383818744702508</v>
+      </c>
+      <c r="F74">
+        <v>0.03650095722232172</v>
+      </c>
+      <c r="G74">
+        <v>-0.0172774296499832</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1236912832772399</v>
+        <v>-0.1159947659986251</v>
       </c>
       <c r="C75">
-        <v>-0.02478876017423898</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02625620241635202</v>
+      </c>
+      <c r="D75">
+        <v>0.04273758531471505</v>
+      </c>
+      <c r="E75">
+        <v>-0.1203325147961478</v>
+      </c>
+      <c r="F75">
+        <v>-0.003764200103760866</v>
+      </c>
+      <c r="G75">
+        <v>-0.01614478727428022</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07551950246077903</v>
+        <v>-0.08611707424975215</v>
       </c>
       <c r="C77">
-        <v>-0.1178793013848286</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1221184167253295</v>
+      </c>
+      <c r="D77">
+        <v>0.07841532377107974</v>
+      </c>
+      <c r="E77">
+        <v>0.05252762663443123</v>
+      </c>
+      <c r="F77">
+        <v>-0.07336193236910479</v>
+      </c>
+      <c r="G77">
+        <v>0.1439799006642393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08237084109383085</v>
+        <v>-0.08733902378880185</v>
       </c>
       <c r="C78">
-        <v>-0.1245654981228921</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1246126512189924</v>
+      </c>
+      <c r="D78">
+        <v>0.07108888506598139</v>
+      </c>
+      <c r="E78">
+        <v>0.02096160447601784</v>
+      </c>
+      <c r="F78">
+        <v>-0.1187342375946592</v>
+      </c>
+      <c r="G78">
+        <v>0.05378282195745295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1670423597272663</v>
+        <v>-0.163027346372117</v>
       </c>
       <c r="C79">
-        <v>-0.02050727352231106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02167405154694792</v>
+      </c>
+      <c r="D79">
+        <v>0.02525932394196977</v>
+      </c>
+      <c r="E79">
+        <v>-0.09387507103440593</v>
+      </c>
+      <c r="F79">
+        <v>0.003622726776217045</v>
+      </c>
+      <c r="G79">
+        <v>-0.000199829358621092</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07768753610165186</v>
+        <v>-0.07426468427924413</v>
       </c>
       <c r="C80">
-        <v>-0.08136151736253368</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.07565527575020127</v>
+      </c>
+      <c r="D80">
+        <v>-0.003782472524463175</v>
+      </c>
+      <c r="E80">
+        <v>0.07708506539203262</v>
+      </c>
+      <c r="F80">
+        <v>-0.04275688127678554</v>
+      </c>
+      <c r="G80">
+        <v>-0.0719246518807678</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1117130703155379</v>
+        <v>-0.1052465453987899</v>
       </c>
       <c r="C81">
-        <v>0.01406539858724637</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01191966608048313</v>
+      </c>
+      <c r="D81">
+        <v>0.01407614179822319</v>
+      </c>
+      <c r="E81">
+        <v>-0.1249791498993078</v>
+      </c>
+      <c r="F81">
+        <v>0.008753827373291227</v>
+      </c>
+      <c r="G81">
+        <v>-0.05872425412408341</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1631609771543006</v>
+        <v>-0.1579075622520995</v>
       </c>
       <c r="C82">
-        <v>0.01484679744139752</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.01032767379908675</v>
+      </c>
+      <c r="D82">
+        <v>0.08627265101489653</v>
+      </c>
+      <c r="E82">
+        <v>-0.1036925689034954</v>
+      </c>
+      <c r="F82">
+        <v>0.08654491384653973</v>
+      </c>
+      <c r="G82">
+        <v>-0.02328636400223559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05385193553153163</v>
+        <v>-0.04986438078115502</v>
       </c>
       <c r="C83">
-        <v>-0.06813122557305779</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.06284049258047292</v>
+      </c>
+      <c r="D83">
+        <v>-0.007396709480216271</v>
+      </c>
+      <c r="E83">
+        <v>0.0002940311686572098</v>
+      </c>
+      <c r="F83">
+        <v>0.002672272496010653</v>
+      </c>
+      <c r="G83">
+        <v>0.0226242894749202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04891159031877119</v>
+        <v>-0.04747093893755882</v>
       </c>
       <c r="C84">
-        <v>-0.07688757109169289</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.07389274546085541</v>
+      </c>
+      <c r="D84">
+        <v>-0.01363141470297959</v>
+      </c>
+      <c r="E84">
+        <v>-0.02855249115048995</v>
+      </c>
+      <c r="F84">
+        <v>-0.01213251438070943</v>
+      </c>
+      <c r="G84">
+        <v>0.01998129911948407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1384144037644988</v>
+        <v>-0.1338886268002544</v>
       </c>
       <c r="C85">
-        <v>-0.007361267938121622</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.00921885488507037</v>
+      </c>
+      <c r="D85">
+        <v>0.08500622884106293</v>
+      </c>
+      <c r="E85">
+        <v>-0.08559927152916433</v>
+      </c>
+      <c r="F85">
+        <v>0.004001413379804333</v>
+      </c>
+      <c r="G85">
+        <v>-0.01326318267744435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08363909572694497</v>
+        <v>-0.08343465577794347</v>
       </c>
       <c r="C86">
-        <v>-0.1569478403244851</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1569166952148273</v>
+      </c>
+      <c r="D86">
+        <v>-0.586327831511961</v>
+      </c>
+      <c r="E86">
+        <v>0.03370418921486252</v>
+      </c>
+      <c r="F86">
+        <v>-0.5516066386667717</v>
+      </c>
+      <c r="G86">
+        <v>-0.3600003814956773</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.09054744228895251</v>
+        <v>-0.08682054308687341</v>
       </c>
       <c r="C87">
-        <v>-0.1008239757042406</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.09966036200847543</v>
+      </c>
+      <c r="D87">
+        <v>0.08880338977257402</v>
+      </c>
+      <c r="E87">
+        <v>0.188432864270365</v>
+      </c>
+      <c r="F87">
+        <v>0.02983282159690052</v>
+      </c>
+      <c r="G87">
+        <v>0.05235791942701787</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06006268061566172</v>
+        <v>-0.0598389662515533</v>
       </c>
       <c r="C88">
-        <v>-0.06135480941189284</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06189894026171217</v>
+      </c>
+      <c r="D88">
+        <v>0.01083526241374923</v>
+      </c>
+      <c r="E88">
+        <v>-0.02931528892425688</v>
+      </c>
+      <c r="F88">
+        <v>0.009213689400994433</v>
+      </c>
+      <c r="G88">
+        <v>0.005038547317876538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1527223904175432</v>
+        <v>-0.1521470156180054</v>
       </c>
       <c r="C89">
-        <v>0.1995529079287471</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2075692993097767</v>
+      </c>
+      <c r="D89">
+        <v>-0.01114332234504084</v>
+      </c>
+      <c r="E89">
+        <v>0.1241432009710516</v>
+      </c>
+      <c r="F89">
+        <v>-0.03175265955686146</v>
+      </c>
+      <c r="G89">
+        <v>0.02057880348177669</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1829291405214802</v>
+        <v>-0.1867127298795748</v>
       </c>
       <c r="C90">
-        <v>0.2307929523695679</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.2341584708388925</v>
+      </c>
+      <c r="D90">
+        <v>-0.03821235022693342</v>
+      </c>
+      <c r="E90">
+        <v>0.2102179065501499</v>
+      </c>
+      <c r="F90">
+        <v>-0.04337774012595554</v>
+      </c>
+      <c r="G90">
+        <v>0.0543541613255772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1275125096140418</v>
+        <v>-0.1212622915984033</v>
       </c>
       <c r="C91">
-        <v>0.02116986743233098</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01825573497456298</v>
+      </c>
+      <c r="D91">
+        <v>-0.003088383362807368</v>
+      </c>
+      <c r="E91">
+        <v>-0.1706913261234079</v>
+      </c>
+      <c r="F91">
+        <v>0.009771169247416471</v>
+      </c>
+      <c r="G91">
+        <v>-0.08098816816612456</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1761627687224926</v>
+        <v>-0.1775471641136235</v>
       </c>
       <c r="C92">
-        <v>0.2637372689422554</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2747216194291988</v>
+      </c>
+      <c r="D92">
+        <v>-0.03585919255347834</v>
+      </c>
+      <c r="E92">
+        <v>0.1750696598948532</v>
+      </c>
+      <c r="F92">
+        <v>-0.130741762644517</v>
+      </c>
+      <c r="G92">
+        <v>0.06937348250930378</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1798863703611548</v>
+        <v>-0.1868548313366021</v>
       </c>
       <c r="C93">
-        <v>0.2231718650577114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2276099095673748</v>
+      </c>
+      <c r="D93">
+        <v>-0.01971490701987547</v>
+      </c>
+      <c r="E93">
+        <v>0.0846059772722153</v>
+      </c>
+      <c r="F93">
+        <v>-0.0738943465821824</v>
+      </c>
+      <c r="G93">
+        <v>0.06693489455304177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1185439501806422</v>
+        <v>-0.1126330023117508</v>
       </c>
       <c r="C94">
-        <v>-0.0366064446528365</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03692430871114362</v>
+      </c>
+      <c r="D94">
+        <v>0.03790747652396253</v>
+      </c>
+      <c r="E94">
+        <v>-0.115828464885865</v>
+      </c>
+      <c r="F94">
+        <v>-0.002083794752587745</v>
+      </c>
+      <c r="G94">
+        <v>-0.01599378404375452</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1183365416240453</v>
+        <v>-0.1191548088017058</v>
       </c>
       <c r="C95">
-        <v>-0.1031986335357904</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.113089632030701</v>
+      </c>
+      <c r="D95">
+        <v>0.004653252794642243</v>
+      </c>
+      <c r="E95">
+        <v>0.01419143253535706</v>
+      </c>
+      <c r="F95">
+        <v>-0.07879636485379038</v>
+      </c>
+      <c r="G95">
+        <v>0.003015559892329002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1164854514948647</v>
+        <v>-0.1143420948017653</v>
       </c>
       <c r="C96">
-        <v>-0.1280946957673189</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1313691914705468</v>
+      </c>
+      <c r="D96">
+        <v>-0.0134947767454484</v>
+      </c>
+      <c r="E96">
+        <v>-0.02321058477988658</v>
+      </c>
+      <c r="F96">
+        <v>0.05041809520798836</v>
+      </c>
+      <c r="G96">
+        <v>0.1312037563463441</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1972410354338593</v>
+        <v>-0.2002070067056886</v>
       </c>
       <c r="C97">
-        <v>-0.02013796338417306</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.01199896212073872</v>
+      </c>
+      <c r="D97">
+        <v>-0.2074395129313908</v>
+      </c>
+      <c r="E97">
+        <v>0.03761461163645545</v>
+      </c>
+      <c r="F97">
+        <v>0.5165181346813582</v>
+      </c>
+      <c r="G97">
+        <v>-0.6368074130839352</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2003136652253245</v>
+        <v>-0.2065928795800553</v>
       </c>
       <c r="C98">
-        <v>-0.02520459155193358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02889228268657953</v>
+      </c>
+      <c r="D98">
+        <v>-0.08340510810198791</v>
+      </c>
+      <c r="E98">
+        <v>0.003593920640674271</v>
+      </c>
+      <c r="F98">
+        <v>0.1253252405700299</v>
+      </c>
+      <c r="G98">
+        <v>0.0710345330546354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05425101865703691</v>
+        <v>-0.05311152200327746</v>
       </c>
       <c r="C99">
-        <v>-0.06152381032574472</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.06100363199101574</v>
+      </c>
+      <c r="D99">
+        <v>0.004717099942674354</v>
+      </c>
+      <c r="E99">
+        <v>0.02704066992174807</v>
+      </c>
+      <c r="F99">
+        <v>-0.01659022175972741</v>
+      </c>
+      <c r="G99">
+        <v>-0.007311765749368192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09170909137490908</v>
+        <v>-0.08810063708178292</v>
       </c>
       <c r="C100">
-        <v>-0.3280143664452856</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.3083073349802128</v>
+      </c>
+      <c r="D100">
+        <v>-0.3010115091554087</v>
+      </c>
+      <c r="E100">
+        <v>0.5471560603836015</v>
+      </c>
+      <c r="F100">
+        <v>0.4085607155594981</v>
+      </c>
+      <c r="G100">
+        <v>0.2113176960526851</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02483838374034355</v>
+        <v>-0.02690195663235185</v>
       </c>
       <c r="C101">
-        <v>-0.05420047480781088</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05201186677442329</v>
+      </c>
+      <c r="D101">
+        <v>0.005922533846095387</v>
+      </c>
+      <c r="E101">
+        <v>0.0318688932330768</v>
+      </c>
+      <c r="F101">
+        <v>-0.05957447303997523</v>
+      </c>
+      <c r="G101">
+        <v>-0.00411546593738552</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
